--- a/htdocs/App/Controllers/HojaEntradaCompraventas2017.xlsx
+++ b/htdocs/App/Controllers/HojaEntradaCompraventas2017.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>x 4% (VALORACIÓN 620 )</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Telf.</t>
   </si>
@@ -80,6 +77,12 @@
   <si>
     <t>TRANSFERENCIAS COMPRAVENTAS</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>% (VALORACIÓN 620 )</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +93,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="000\ 00\ 00\ 00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,12 +165,6 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -376,106 +373,115 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -562,345 +568,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="Text Box 5"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7620000" y="12039600"/>
-          <a:ext cx="4010025" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="003300" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="58"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Vendedor: Teléfono:…………………..…</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…………………………………………..………………………….</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. DNI Caducidad ….. / ….. / …..</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. CIF</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. DNI Administrador …………………………….</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. Escritura poder              …….. Impreso Escritura</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. Impreso Trafico             …….. Impreso Conselleria (620)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. Factura</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Comprador:  Teléfono:…………………..…</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>……………………………………..……………………………….</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. DNI Caducidad ….. / ….. / …..</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. CIF</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. DNI Administrador …………………………….</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. Escritura poder              …….. Impreso Escritura</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>…….. Impreso Trafico             …….. Impreso Conselleria (620)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1195,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1205,12 +872,12 @@
     <col min="2" max="3" width="3.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="1.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="4.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="3.28515625" style="1" customWidth="1"/>
@@ -1220,11 +887,11 @@
     <col min="18" max="18" width="3.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="14" style="1" customWidth="1"/>
     <col min="20" max="20" width="3.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="1.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" style="1" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="1.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="1" customWidth="1"/>
     <col min="26" max="27" width="2.5703125" style="1" customWidth="1"/>
     <col min="28" max="28" width="3.85546875" style="1" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" style="1" customWidth="1"/>
@@ -1248,7 +915,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="25"/>
       <c r="J1" s="14"/>
@@ -1290,16 +957,16 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
-      <c r="T2" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="65"/>
+      <c r="T2" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="49"/>
     </row>
     <row r="3" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
@@ -1321,14 +988,14 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="52"/>
     </row>
     <row r="4" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1340,16 +1007,16 @@
       <c r="G4" s="14"/>
       <c r="R4" s="15"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="71"/>
+      <c r="T4" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="55"/>
     </row>
     <row r="5" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
@@ -1361,14 +1028,14 @@
       <c r="G5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="74"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="58"/>
     </row>
     <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -1390,16 +1057,16 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="71"/>
+      <c r="T6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
@@ -1421,29 +1088,29 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="74"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
+      <c r="T8" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
     </row>
@@ -1451,16 +1118,16 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
+      <c r="T9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
     </row>
@@ -1558,39 +1225,44 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="33" t="s">
+      <c r="S13" s="63">
         <v>0</v>
       </c>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14" t="s">
-        <v>5</v>
+      <c r="T13" s="63"/>
+      <c r="U13" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13" s="43">
+        <v>4</v>
+      </c>
+      <c r="W13" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" s="43"/>
+      <c r="Z13" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="AA13" s="30"/>
       <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
+      <c r="B14" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1624,11 +1296,11 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="14"/>
@@ -1638,40 +1310,40 @@
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
-      <c r="B16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="B16" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
+      <c r="S16" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62"/>
       <c r="X16" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="36">
         <v>58</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA16" s="30"/>
       <c r="AE16" s="8"/>
@@ -1695,61 +1367,61 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
+      <c r="S17" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62"/>
       <c r="X17" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="36">
+        <f>S13*V13/100</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="Y17" s="36">
-        <f>S13*0.04</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
+      <c r="B18" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="59" t="s">
+      <c r="S18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="35" t="s">
+      <c r="Y18" s="44">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="Y18" s="75">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="14" t="s">
-        <v>5</v>
       </c>
       <c r="AA18" s="30"/>
     </row>
@@ -1772,13 +1444,13 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
+      <c r="S19" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="14"/>
@@ -1803,13 +1475,13 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
+      <c r="S20" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="14"/>
@@ -1817,30 +1489,30 @@
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
-      <c r="B21" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
+      <c r="B21" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="37"/>
       <c r="AA21" s="30"/>
@@ -1864,11 +1536,11 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="14"/>
@@ -1876,30 +1548,30 @@
     </row>
     <row r="23" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
-      <c r="B23" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="B23" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="14"/>
@@ -1924,11 +1596,11 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="14"/>
@@ -1936,30 +1608,30 @@
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
-      <c r="B25" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="B25" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="14"/>
@@ -1985,11 +1657,11 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="14"/>
@@ -2015,11 +1687,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
       <c r="X27" s="36"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="14"/>
@@ -2028,11 +1700,11 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R28" s="14"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
       <c r="X28" s="36"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="14"/>
@@ -2040,13 +1712,13 @@
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R29" s="14"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
+      <c r="U29" s="60"/>
+      <c r="V29" s="60"/>
+      <c r="W29" s="60"/>
       <c r="X29" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="37"/>
       <c r="Z29" s="14"/>
@@ -2054,13 +1726,13 @@
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R30" s="14"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
       <c r="X30" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y30" s="37"/>
       <c r="Z30" s="14"/>
@@ -2074,7 +1746,7 @@
       <c r="V31" s="30"/>
       <c r="W31" s="30"/>
       <c r="X31" s="39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y31" s="36"/>
       <c r="Z31" s="14"/>
@@ -2128,20 +1800,20 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="46">
+      <c r="S33" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="73"/>
+      <c r="U33" s="73"/>
+      <c r="V33" s="73"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="65">
         <f>SUM(Y15:Y30)</f>
         <v>103</v>
       </c>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="48"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="67"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
@@ -2162,15 +1834,15 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="30"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="50"/>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="51"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="73"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="73"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="69"/>
+      <c r="AA34" s="70"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -2386,24 +2058,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="X6:AA7"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="X33:AA34"/>
     <mergeCell ref="D25:O25"/>
     <mergeCell ref="S30:W30"/>
@@ -2420,13 +2081,24 @@
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="S18:W18"/>
     <mergeCell ref="S17:W17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="S25:W25"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="X6:AA7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.2" bottom="0.19685039370078741" header="0" footer="0"/>

--- a/htdocs/App/Controllers/HojaEntradaCompraventas2017.xlsx
+++ b/htdocs/App/Controllers/HojaEntradaCompraventas2017.xlsx
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,6 +381,60 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -422,64 +476,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -957,16 +960,16 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="49"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="67"/>
     </row>
     <row r="3" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
@@ -988,14 +991,14 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="52"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
     </row>
     <row r="4" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -1007,16 +1010,16 @@
       <c r="G4" s="14"/>
       <c r="R4" s="15"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="55"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="73"/>
     </row>
     <row r="5" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
@@ -1028,14 +1031,14 @@
       <c r="G5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="58"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="76"/>
     </row>
     <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
@@ -1057,16 +1060,16 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="45" t="s">
+      <c r="T6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="53"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="55"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="73"/>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
@@ -1088,29 +1091,29 @@
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="76"/>
     </row>
     <row r="8" spans="1:32" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="61" t="s">
+      <c r="T8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="61"/>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
     </row>
@@ -1118,16 +1121,16 @@
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="61" t="s">
+      <c r="T9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
     </row>
@@ -1225,10 +1228,10 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
-      <c r="S13" s="63">
+      <c r="S13" s="62">
         <v>0</v>
       </c>
-      <c r="T13" s="63"/>
+      <c r="T13" s="62"/>
       <c r="U13" s="42" t="s">
         <v>18</v>
       </c>
@@ -1247,22 +1250,22 @@
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1296,11 +1299,11 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="36"/>
       <c r="Z15" s="14"/>
@@ -1310,32 +1313,32 @@
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
       <c r="P16" s="32"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="62" t="s">
+      <c r="S16" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="60"/>
+      <c r="W16" s="60"/>
       <c r="X16" s="35" t="s">
         <v>3</v>
       </c>
@@ -1367,13 +1370,13 @@
       <c r="P17" s="34"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
-      <c r="S17" s="62" t="s">
+      <c r="S17" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="62"/>
-      <c r="U17" s="62"/>
-      <c r="V17" s="62"/>
-      <c r="W17" s="62"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
       <c r="X17" s="35" t="s">
         <v>3</v>
       </c>
@@ -1388,32 +1391,32 @@
     </row>
     <row r="18" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="62" t="s">
+      <c r="S18" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
       <c r="X18" s="35" t="s">
         <v>3</v>
       </c>
@@ -1444,13 +1447,13 @@
       <c r="P19" s="29"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="76" t="s">
+      <c r="S19" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
       <c r="X19" s="36"/>
       <c r="Y19" s="37"/>
       <c r="Z19" s="14"/>
@@ -1475,13 +1478,13 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="S20" s="76" t="s">
+      <c r="S20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="37"/>
       <c r="Z20" s="14"/>
@@ -1489,30 +1492,30 @@
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
       <c r="X21" s="36"/>
       <c r="Y21" s="37"/>
       <c r="AA21" s="30"/>
@@ -1536,11 +1539,11 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
       <c r="X22" s="36"/>
       <c r="Y22" s="37"/>
       <c r="Z22" s="14"/>
@@ -1548,30 +1551,30 @@
     </row>
     <row r="23" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
       <c r="X23" s="36"/>
       <c r="Y23" s="37"/>
       <c r="Z23" s="14"/>
@@ -1596,11 +1599,11 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
       <c r="X24" s="36"/>
       <c r="Y24" s="37"/>
       <c r="Z24" s="14"/>
@@ -1608,30 +1611,30 @@
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="37"/>
       <c r="Z25" s="14"/>
@@ -1657,11 +1660,11 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="78"/>
+      <c r="W26" s="78"/>
       <c r="X26" s="36"/>
       <c r="Y26" s="37"/>
       <c r="Z26" s="14"/>
@@ -1687,11 +1690,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
-      <c r="U27" s="64"/>
-      <c r="V27" s="64"/>
-      <c r="W27" s="64"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
       <c r="X27" s="36"/>
       <c r="Y27" s="37"/>
       <c r="Z27" s="14"/>
@@ -1700,11 +1703,11 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R28" s="14"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="36"/>
       <c r="Y28" s="37"/>
       <c r="Z28" s="14"/>
@@ -1712,11 +1715,11 @@
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R29" s="14"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
       <c r="X29" s="39" t="s">
         <v>3</v>
       </c>
@@ -1726,11 +1729,11 @@
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R30" s="14"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
       <c r="X30" s="39" t="s">
         <v>3</v>
       </c>
@@ -1800,20 +1803,20 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
-      <c r="S33" s="73" t="s">
+      <c r="S33" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="65">
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="49">
         <f>SUM(Y15:Y30)</f>
         <v>103</v>
       </c>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="67"/>
+      <c r="Y33" s="50"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="51"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
@@ -1834,15 +1837,15 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="30"/>
       <c r="R34" s="12"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="70"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="53"/>
+      <c r="AA34" s="54"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
@@ -2058,13 +2061,24 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="G14:O14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="T6:W7"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="S15:W15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S29:W29"/>
+    <mergeCell ref="S28:W28"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="S25:W25"/>
     <mergeCell ref="X33:AA34"/>
     <mergeCell ref="D25:O25"/>
     <mergeCell ref="S30:W30"/>
@@ -2081,24 +2095,13 @@
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="S18:W18"/>
     <mergeCell ref="S17:W17"/>
-    <mergeCell ref="S29:W29"/>
-    <mergeCell ref="S28:W28"/>
-    <mergeCell ref="S27:W27"/>
-    <mergeCell ref="S26:W26"/>
-    <mergeCell ref="S25:W25"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="S15:W15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="T6:W7"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="X6:AA7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G14:O14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.2" bottom="0.19685039370078741" header="0" footer="0"/>
